--- a/biology/Zoologie/Fecampiida/Fecampiida.xlsx
+++ b/biology/Zoologie/Fecampiida/Fecampiida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fecampiida sont un ordre de vers plats du sous-embranchement des Rhabditophora. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Fecampiida Rohde, Luton &amp; Johnson, 1994[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Fecampiida Rohde, Luton &amp; Johnson, 1994.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après la base de données World Register of Marine Species                               (8 novembre 2023)[1], l'ordre des Fecampiida contient les familles suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la base de données World Register of Marine Species                               (8 novembre 2023), l'ordre des Fecampiida contient les familles suivantes :
 Fecampiidae Graff, 1903
 Genostomatidae Graff, 1903
 Notenteridae Joffe, Selivanova &amp; Kornakova, 1997
@@ -577,9 +593,11 @@
           <t>Vision phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
 </t>
         </is>
       </c>
